--- a/lections/План, по часам 221-1.xlsx
+++ b/lections/План, по часам 221-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-212-2\lections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC04B42-759E-462E-8217-5D4DA471854B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C71AC2-0917-4EBE-8738-EA1EB5C7F05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Тема</t>
   </si>
@@ -44,113 +44,62 @@
 (2 пары в день)</t>
   </si>
   <si>
-    <t>Основные понятия Django. Вывод данных</t>
-  </si>
-  <si>
-    <t>Связи. Ввод данных</t>
-  </si>
-  <si>
-    <t>Создание и настройка проекта</t>
-  </si>
-  <si>
-    <t>Модели: Базовые инструменты</t>
-  </si>
-  <si>
-    <t>Миграции</t>
-  </si>
-  <si>
-    <t>Запись данных</t>
-  </si>
-  <si>
-    <t>Выборка данных</t>
-  </si>
-  <si>
-    <t>Маршрутизация</t>
-  </si>
-  <si>
-    <t>Контроллеры-функции</t>
-  </si>
-  <si>
-    <t>Контроллеры-классы</t>
-  </si>
-  <si>
-    <t>Шаблоны и статические файлы</t>
-  </si>
-  <si>
-    <t>Пагинатор</t>
-  </si>
-  <si>
-    <t>Формы связанные с моделями</t>
-  </si>
-  <si>
-    <t>Наборы форм, связанные с моделями</t>
-  </si>
-  <si>
-    <t>Разграничение доступа</t>
-  </si>
-  <si>
-    <t>Модели: расширенные инструменты</t>
-  </si>
-  <si>
-    <t>Формы и наборы форм: расширенные инструменты</t>
-  </si>
-  <si>
-    <t>Поддержка баз данных PostgreSQL</t>
-  </si>
-  <si>
-    <t>Шаблоны: Расширенные инструменты</t>
-  </si>
-  <si>
-    <t>Обработка выгруженных файлов</t>
-  </si>
-  <si>
-    <t>Разграничение доступа. Расширенные инструменты</t>
-  </si>
-  <si>
-    <t>Посредники и обработчики контекста</t>
-  </si>
-  <si>
-    <t>Cookie, сессии, всплывающие сообщения и подписывание данных</t>
-  </si>
-  <si>
-    <t>Сигналы</t>
-  </si>
-  <si>
-    <t>Отправка электронных писем</t>
-  </si>
-  <si>
-    <t>Кэширование</t>
-  </si>
-  <si>
-    <t>Административный сайт Django</t>
-  </si>
-  <si>
-    <t>Разработка Web-служб REST. REST framework</t>
-  </si>
-  <si>
-    <t>Журналирование и отладка</t>
-  </si>
-  <si>
-    <t>Публикация web-сайта</t>
-  </si>
-  <si>
     <t>Резервные пары</t>
   </si>
   <si>
-    <t>Дипломное проектирование</t>
-  </si>
-  <si>
     <t>Итого</t>
   </si>
   <si>
-    <t>Создание web-приложений с использованием фреймворка Django</t>
+    <t>Числа, строки, списки</t>
+  </si>
+  <si>
+    <t>Функции</t>
+  </si>
+  <si>
+    <t>Сортировка, поиск</t>
+  </si>
+  <si>
+    <t>Списки, кортежи, множества, диапазоны, словари</t>
+  </si>
+  <si>
+    <t>Работа с датой и временем</t>
+  </si>
+  <si>
+    <t>Регулярные выражения</t>
+  </si>
+  <si>
+    <t>Модули и пакеты</t>
+  </si>
+  <si>
+    <t>Объектно-ориентированное программирование</t>
+  </si>
+  <si>
+    <t>Обработка исключений</t>
+  </si>
+  <si>
+    <t>Итераторы, контейнеры и перечисления</t>
+  </si>
+  <si>
+    <t>Работа с файлами и каталогами</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <t>Введение в программирование на Python</t>
+  </si>
+  <si>
+    <t>Управляющие выражения. Блоки, условия, циклы</t>
+  </si>
+  <si>
+    <t>Основы программирования на Python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +115,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +208,85 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -259,7 +301,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -274,7 +316,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -289,46 +331,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -341,7 +344,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -354,62 +357,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,49 +399,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,36 +724,36 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="93.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="72" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+    <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:9" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3"/>
@@ -807,62 +762,63 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15">
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16">
         <v>6</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <f>B3/2</f>
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C35" si="0">B4/2</f>
-        <v>2</v>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="19">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20">
+        <f>B4/2</f>
+        <v>8</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B5" s="19">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" ref="C5:C17" si="0">B5/2</f>
+        <v>3</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="19">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -871,46 +827,46 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="19">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="19">
         <v>4</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -919,14 +875,14 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="19">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -935,46 +891,46 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="19">
+        <v>2</v>
+      </c>
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="19">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="19">
         <v>4</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -983,46 +939,46 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="19">
+        <v>4</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="C14" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11">
-        <v>6</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="19">
+        <v>4</v>
+      </c>
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="11">
+    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19">
         <v>4</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1031,32 +987,33 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="11">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13">
+    <row r="17" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22">
+        <v>2</v>
+      </c>
+      <c r="C17" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="11">
-        <v>6</v>
-      </c>
-      <c r="C18" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="13">
+        <f>SUM(B3:B17)</f>
+        <v>86</v>
+      </c>
+      <c r="C18" s="14">
+        <f>B18/2</f>
+        <v>43</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1064,273 +1021,150 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="11">
-        <v>4</v>
-      </c>
-      <c r="C19" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="11">
-        <v>4</v>
-      </c>
-      <c r="C20" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="11">
-        <v>4</v>
-      </c>
-      <c r="C21" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="11">
-        <v>6</v>
-      </c>
-      <c r="C22" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="11">
-        <v>4</v>
-      </c>
-      <c r="C23" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="11">
-        <v>2</v>
-      </c>
-      <c r="C24" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="11">
-        <v>4</v>
-      </c>
-      <c r="C25" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="11">
-        <v>2</v>
-      </c>
-      <c r="C26" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="11">
-        <v>4</v>
-      </c>
-      <c r="C27" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="11">
-        <v>4</v>
-      </c>
-      <c r="C28" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="11">
-        <v>6</v>
-      </c>
-      <c r="C29" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="11">
-        <v>6</v>
-      </c>
-      <c r="C30" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="11">
-        <v>6</v>
-      </c>
-      <c r="C31" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="11">
-        <v>2</v>
-      </c>
-      <c r="C32" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="11">
-        <v>4</v>
-      </c>
-      <c r="C33" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="11">
-        <v>8</v>
-      </c>
-      <c r="C34" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="18">
-        <f>SUM(B3:B34)</f>
-        <v>136</v>
-      </c>
-      <c r="C35" s="19">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
